--- a/Kyle_Allen2018.xlsx
+++ b/Kyle_Allen2018.xlsx
@@ -15,9 +15,15 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="32">
-  <si>
-    <t>https://www.pro-football-reference.com/players/A/AlleKy00/gamelog/2018/</t>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="34">
+  <si>
+    <t>Allen</t>
+  </si>
+  <si>
+    <t>Kyle</t>
+  </si>
+  <si>
+    <t>QB</t>
   </si>
   <si>
     <t>2018-12-23</t>
@@ -446,7 +452,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:Z2"/>
+  <dimension ref="A1:AC2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -454,7 +460,7 @@
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:26">
+    <row r="1" spans="1:29">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -470,22 +476,22 @@
       <c r="E1" t="s">
         <v>4</v>
       </c>
-      <c r="F1" t="s"/>
+      <c r="F1" t="s">
+        <v>5</v>
+      </c>
       <c r="G1" t="s">
-        <v>5</v>
-      </c>
-      <c r="H1" t="s">
         <v>6</v>
       </c>
-      <c r="I1" t="s"/>
+      <c r="H1" t="s"/>
+      <c r="I1" t="s">
+        <v>7</v>
+      </c>
       <c r="J1" t="s">
-        <v>7</v>
-      </c>
-      <c r="K1" t="s">
-        <v>7</v>
-      </c>
+        <v>8</v>
+      </c>
+      <c r="K1" t="s"/>
       <c r="L1" t="s">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="M1" t="s">
         <v>9</v>
@@ -494,16 +500,16 @@
         <v>10</v>
       </c>
       <c r="O1" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="P1" t="s">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="Q1" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="R1" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="S1" t="s">
         <v>12</v>
@@ -512,43 +518,52 @@
         <v>12</v>
       </c>
       <c r="U1" t="s">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="V1" t="s">
-        <v>10</v>
-      </c>
-      <c r="W1" t="s"/>
+        <v>14</v>
+      </c>
+      <c r="W1" t="s">
+        <v>12</v>
+      </c>
       <c r="X1" t="s">
-        <v>10</v>
-      </c>
-      <c r="Y1" t="s">
-        <v>10</v>
-      </c>
+        <v>12</v>
+      </c>
+      <c r="Y1" t="s"/>
       <c r="Z1" t="s">
-        <v>10</v>
+        <v>12</v>
+      </c>
+      <c r="AA1" t="s">
+        <v>12</v>
+      </c>
+      <c r="AB1" t="s">
+        <v>12</v>
+      </c>
+      <c r="AC1" t="n">
+        <v>424.8</v>
       </c>
     </row>
-    <row r="2" spans="1:26">
+    <row r="2" spans="1:29">
       <c r="A2" t="s">
         <v>0</v>
       </c>
       <c r="B2" t="s">
-        <v>13</v>
+        <v>1</v>
       </c>
       <c r="C2" t="s">
-        <v>14</v>
+        <v>2</v>
       </c>
       <c r="D2" t="s">
         <v>15</v>
       </c>
       <c r="E2" t="s">
-        <v>4</v>
+        <v>16</v>
       </c>
       <c r="F2" t="s">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="G2" t="s">
-        <v>17</v>
+        <v>6</v>
       </c>
       <c r="H2" t="s">
         <v>18</v>
@@ -557,13 +572,13 @@
         <v>19</v>
       </c>
       <c r="J2" t="s">
-        <v>14</v>
+        <v>20</v>
       </c>
       <c r="K2" t="s">
-        <v>20</v>
+        <v>21</v>
       </c>
       <c r="L2" t="s">
-        <v>21</v>
+        <v>16</v>
       </c>
       <c r="M2" t="s">
         <v>22</v>
@@ -572,22 +587,22 @@
         <v>23</v>
       </c>
       <c r="O2" t="s">
-        <v>10</v>
+        <v>24</v>
       </c>
       <c r="P2" t="s">
-        <v>24</v>
+        <v>25</v>
       </c>
       <c r="Q2" t="s">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="R2" t="s">
-        <v>10</v>
+        <v>26</v>
       </c>
       <c r="S2" t="s">
-        <v>25</v>
+        <v>12</v>
       </c>
       <c r="T2" t="s">
-        <v>26</v>
+        <v>12</v>
       </c>
       <c r="U2" t="s">
         <v>27</v>
@@ -602,10 +617,19 @@
         <v>30</v>
       </c>
       <c r="Y2" t="s">
-        <v>30</v>
+        <v>31</v>
       </c>
       <c r="Z2" t="s">
-        <v>31</v>
+        <v>32</v>
+      </c>
+      <c r="AA2" t="s">
+        <v>32</v>
+      </c>
+      <c r="AB2" t="s">
+        <v>33</v>
+      </c>
+      <c r="AC2" t="n">
+        <v>481.3</v>
       </c>
     </row>
   </sheetData>
